--- a/Maintenance may june july.xlsx
+++ b/Maintenance may june july.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41104D4-C287-4462-93C9-DF92514667F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F093C956-3A89-49B5-B86D-BFEFF32A1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="May June July maintenance" sheetId="14" r:id="rId1"/>
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C56038-014C-446F-8809-AF3D7B4BA2C5}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4611,7 +4611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9F190-075D-4F89-9BDA-927DD7952AEF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -7656,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A11" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7829,8 +7829,8 @@
         <v>154</v>
       </c>
       <c r="C11" s="3">
-        <f>65120+3611</f>
-        <v>68731</v>
+        <f>65120+3611+2583+2530</f>
+        <v>73844</v>
       </c>
       <c r="D11" s="38">
         <v>45763</v>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>284506</v>
+        <v>289619</v>
       </c>
       <c r="E15" t="s">
         <v>152</v>
@@ -7980,8 +7980,8 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V71" sqref="V71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U67" sqref="U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9836,7 +9836,9 @@
         <f t="shared" si="8"/>
         <v>2530</v>
       </c>
-      <c r="U26" s="16"/>
+      <c r="U26" s="16">
+        <v>2530</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
@@ -12388,7 +12390,9 @@
         <f t="shared" si="18"/>
         <v>2583</v>
       </c>
-      <c r="U62" s="16"/>
+      <c r="U62" s="16">
+        <v>2583</v>
+      </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
@@ -13145,7 +13149,7 @@
       <c r="T73" s="16"/>
       <c r="U73" s="15">
         <f>SUM(U2:U72)</f>
-        <v>166290</v>
+        <v>171403</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
